--- a/data/trans_orig/IP3104-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3104-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{368E3540-282E-46C2-AF6F-AEA7225C31A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA41DCF7-EAFD-4C32-9F8D-0CB8074724B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D121C512-725C-422F-BE21-99D9E1EB0FD9}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4505AF91-9F75-43F5-BB67-C05B989D22EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,6 +71,66 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
     <t>3 o 4 veces a la semana</t>
   </si>
   <si>
@@ -101,34 +161,34 @@
     <t>24,16%</t>
   </si>
   <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -179,72 +239,210 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
     <t>29,35%</t>
   </si>
   <si>
@@ -272,28 +470,31 @@
     <t>32,59%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
   </si>
   <si>
     <t>4,6%</t>
@@ -332,205 +533,55 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
   </si>
   <si>
     <t>27,49%</t>
@@ -557,31 +608,31 @@
     <t>29,57%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
   </si>
   <si>
     <t>6,92%</t>
@@ -620,60 +671,57 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia de tomar huevos en 2012 (Tasa respuesta: 90,04%)</t>
   </si>
   <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
     <t>23,42%</t>
   </si>
   <si>
@@ -698,28 +746,31 @@
     <t>22,56%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
   </si>
   <si>
     <t>12,43%</t>
@@ -758,55 +809,187 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>36,13%</t>
@@ -836,31 +1019,31 @@
     <t>37,63%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
   </si>
   <si>
     <t>4,94%</t>
@@ -890,187 +1073,46 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
   </si>
   <si>
     <t>30,77%</t>
@@ -1100,28 +1142,31 @@
     <t>32,71%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
   </si>
   <si>
     <t>6,99%</t>
@@ -1154,54 +1199,60 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia de tomar huevos en 2015 (Tasa respuesta: 92,29%)</t>
   </si>
   <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
     <t>29,04%</t>
   </si>
   <si>
@@ -1226,31 +1277,28 @@
     <t>32,39%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
   </si>
   <si>
     <t>5,24%</t>
@@ -1280,52 +1328,184 @@
     <t>8,85%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
   </si>
   <si>
     <t>39,61%</t>
@@ -1355,31 +1535,28 @@
     <t>41,03%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
   </si>
   <si>
     <t>2,11%</t>
@@ -1400,181 +1577,52 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>35,71%</t>
@@ -1601,31 +1649,31 @@
     <t>37,17%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
   </si>
   <si>
     <t>2,93%</t>
@@ -1646,57 +1694,51 @@
     <t>4,25%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia de tomar huevos en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
     <t>25,75%</t>
   </si>
   <si>
@@ -1721,28 +1763,31 @@
     <t>36,39%</t>
   </si>
   <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
   </si>
   <si>
     <t>2,7%</t>
@@ -1772,49 +1817,184 @@
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
   </si>
   <si>
     <t>36,53%</t>
@@ -1844,25 +2024,31 @@
     <t>37,02%</t>
   </si>
   <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
   </si>
   <si>
     <t>3,77%</t>
@@ -1907,190 +2093,37 @@
     <t>2,18%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
   </si>
   <si>
     <t>36,9%</t>
@@ -2117,25 +2150,25 @@
     <t>37,18%</t>
   </si>
   <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
   </si>
   <si>
     <t>4,02%</t>
@@ -2175,39 +2208,6 @@
   </si>
   <si>
     <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
   </si>
 </sst>
 </file>
@@ -2599,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1660A189-D704-47D1-BA39-5168684AF766}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619FA6AF-2BD2-4388-B5F5-7128DC56D3EE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2717,10 +2717,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>36453</v>
+        <v>3155</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2732,10 +2732,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>34070</v>
+        <v>4104</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2747,10 +2747,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>70522</v>
+        <v>7259</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2819,10 +2819,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7">
-        <v>23401</v>
+        <v>36453</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2834,10 +2834,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I6" s="7">
-        <v>19141</v>
+        <v>34070</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2849,10 +2849,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="N6" s="7">
-        <v>42542</v>
+        <v>70522</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2870,10 +2870,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>100026</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2885,133 +2885,133 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>92913</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>192939</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7">
-        <v>3155</v>
+        <v>23401</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I8" s="7">
-        <v>4104</v>
+        <v>19141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="N8" s="7">
-        <v>7259</v>
+        <v>42542</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>100026</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H9" s="7">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>92913</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="M9" s="7">
-        <v>293</v>
-      </c>
-      <c r="N9" s="7">
-        <v>192939</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>65</v>
@@ -3076,10 +3076,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>82279</v>
+        <v>5634</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>68</v>
@@ -3091,10 +3091,10 @@
         <v>70</v>
       </c>
       <c r="H11" s="7">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>77567</v>
+        <v>2083</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>71</v>
@@ -3106,10 +3106,10 @@
         <v>73</v>
       </c>
       <c r="M11" s="7">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="N11" s="7">
-        <v>159846</v>
+        <v>7717</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>74</v>
@@ -3127,10 +3127,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7">
-        <v>30575</v>
+        <v>19284</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>77</v>
@@ -3142,10 +3142,10 @@
         <v>79</v>
       </c>
       <c r="H12" s="7">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I12" s="7">
-        <v>28399</v>
+        <v>17220</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>80</v>
@@ -3157,10 +3157,10 @@
         <v>82</v>
       </c>
       <c r="M12" s="7">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="N12" s="7">
-        <v>58974</v>
+        <v>36504</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>83</v>
@@ -3169,7 +3169,7 @@
         <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,49 +3178,49 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="D13" s="7">
-        <v>12888</v>
+        <v>65590</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="I13" s="7">
-        <v>9503</v>
+        <v>60534</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="N13" s="7">
-        <v>22392</v>
+        <v>126124</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,151 +3229,151 @@
         <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>114739</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>115823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>230562</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>4746</v>
+        <v>10134</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H15" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I15" s="7">
-        <v>6241</v>
+        <v>7493</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M15" s="7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N15" s="7">
-        <v>10987</v>
+        <v>17627</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>149895</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H16" s="7">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>139957</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M16" s="7">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>289852</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,10 +3382,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>420</v>
+        <v>326</v>
       </c>
       <c r="D17" s="7">
-        <v>280384</v>
+        <v>215381</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>66</v>
@@ -3397,10 +3397,10 @@
         <v>66</v>
       </c>
       <c r="H17" s="7">
-        <v>388</v>
+        <v>301</v>
       </c>
       <c r="I17" s="7">
-        <v>261667</v>
+        <v>203153</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>66</v>
@@ -3412,10 +3412,10 @@
         <v>66</v>
       </c>
       <c r="M17" s="7">
-        <v>808</v>
+        <v>627</v>
       </c>
       <c r="N17" s="7">
-        <v>542051</v>
+        <v>418534</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>66</v>
@@ -3429,55 +3429,55 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>65590</v>
+        <v>4746</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>60534</v>
+        <v>6241</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="N18" s="7">
-        <v>126124</v>
+        <v>10987</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,49 +3486,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7">
-        <v>19284</v>
+        <v>30575</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>17220</v>
+        <v>28399</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="N19" s="7">
-        <v>36504</v>
+        <v>58974</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,10 +3537,10 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D20" s="7">
-        <v>10134</v>
+        <v>82279</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>134</v>
@@ -3552,10 +3552,10 @@
         <v>136</v>
       </c>
       <c r="H20" s="7">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I20" s="7">
-        <v>7493</v>
+        <v>77567</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>137</v>
@@ -3567,10 +3567,10 @@
         <v>139</v>
       </c>
       <c r="M20" s="7">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="N20" s="7">
-        <v>17627</v>
+        <v>159846</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>140</v>
@@ -3588,148 +3588,148 @@
         <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>149895</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>139957</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>289852</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D22" s="7">
-        <v>5634</v>
+        <v>12888</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I22" s="7">
-        <v>2083</v>
+        <v>9503</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N22" s="7">
-        <v>7717</v>
+        <v>22392</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>114739</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>115823</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>230562</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>163</v>
@@ -3741,10 +3741,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>326</v>
+        <v>420</v>
       </c>
       <c r="D24" s="7">
-        <v>215381</v>
+        <v>280384</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>66</v>
@@ -3756,10 +3756,10 @@
         <v>66</v>
       </c>
       <c r="H24" s="7">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="I24" s="7">
-        <v>203153</v>
+        <v>261667</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>66</v>
@@ -3771,10 +3771,10 @@
         <v>66</v>
       </c>
       <c r="M24" s="7">
-        <v>627</v>
+        <v>808</v>
       </c>
       <c r="N24" s="7">
-        <v>418534</v>
+        <v>542051</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>66</v>
@@ -3794,10 +3794,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="D25" s="7">
-        <v>184322</v>
+        <v>13535</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>164</v>
@@ -3809,25 +3809,25 @@
         <v>166</v>
       </c>
       <c r="H25" s="7">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="I25" s="7">
-        <v>172171</v>
+        <v>12429</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="M25" s="7">
-        <v>535</v>
+        <v>38</v>
       </c>
       <c r="N25" s="7">
-        <v>356493</v>
+        <v>25964</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>169</v>
@@ -3896,10 +3896,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>69</v>
+        <v>277</v>
       </c>
       <c r="D27" s="7">
-        <v>46423</v>
+        <v>184322</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>181</v>
@@ -3911,10 +3911,10 @@
         <v>183</v>
       </c>
       <c r="H27" s="7">
-        <v>55</v>
+        <v>258</v>
       </c>
       <c r="I27" s="7">
-        <v>36137</v>
+        <v>172171</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>184</v>
@@ -3923,22 +3923,22 @@
         <v>185</v>
       </c>
       <c r="L27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M27" s="7">
+        <v>535</v>
+      </c>
+      <c r="N27" s="7">
+        <v>356493</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M27" s="7">
-        <v>124</v>
-      </c>
-      <c r="N27" s="7">
-        <v>82560</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,148 +3947,148 @@
         <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>364661</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>348692</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>713353</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D29" s="7">
-        <v>13535</v>
+        <v>46423</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I29" s="7">
-        <v>12429</v>
+        <v>36137</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="N29" s="7">
-        <v>25964</v>
+        <v>82560</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>364661</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>348692</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>61</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
-        <v>1069</v>
+        <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>713353</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>209</v>
@@ -4161,7 +4161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7159C33-30A2-4F94-A8F1-50E239B4DF26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11520868-C23E-4867-B99A-D0CDAEA5BCAD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4279,10 +4279,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>41075</v>
+        <v>2886</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>211</v>
@@ -4294,10 +4294,10 @@
         <v>213</v>
       </c>
       <c r="H4" s="7">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>48453</v>
+        <v>2635</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>214</v>
@@ -4309,19 +4309,19 @@
         <v>216</v>
       </c>
       <c r="M4" s="7">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>89528</v>
+        <v>5521</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>217</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,10 +4381,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D6" s="7">
-        <v>21792</v>
+        <v>41075</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>227</v>
@@ -4396,10 +4396,10 @@
         <v>229</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I6" s="7">
-        <v>14613</v>
+        <v>48453</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>230</v>
@@ -4411,10 +4411,10 @@
         <v>232</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="N6" s="7">
-        <v>36406</v>
+        <v>89528</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>233</v>
@@ -4423,7 +4423,7 @@
         <v>234</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,148 +4432,148 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>99350</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>85292</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>184642</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>2886</v>
+        <v>21792</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I8" s="7">
-        <v>2635</v>
+        <v>14613</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="N8" s="7">
-        <v>5521</v>
+        <v>36406</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>99350</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>247</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>248</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H9" s="7">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>85292</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>251</v>
+        <v>62</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M9" s="7">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>184642</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>255</v>
@@ -4638,10 +4638,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>95200</v>
+        <v>6083</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>256</v>
@@ -4650,37 +4650,37 @@
         <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="7">
+        <v>18</v>
+      </c>
+      <c r="I11" s="7">
+        <v>12978</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H11" s="7">
-        <v>117</v>
-      </c>
-      <c r="I11" s="7">
-        <v>82341</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" s="7">
+        <v>27</v>
+      </c>
+      <c r="N11" s="7">
+        <v>19061</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="M11" s="7">
-        <v>258</v>
-      </c>
-      <c r="N11" s="7">
-        <v>177541</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,49 +4689,49 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>29630</v>
+        <v>17830</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>33</v>
+      </c>
+      <c r="I12" s="7">
+        <v>22850</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H12" s="7">
-        <v>36</v>
-      </c>
-      <c r="I12" s="7">
-        <v>24397</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>58</v>
+      </c>
+      <c r="N12" s="7">
+        <v>40679</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="M12" s="7">
-        <v>80</v>
-      </c>
-      <c r="N12" s="7">
-        <v>54027</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,49 +4740,49 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="D13" s="7">
-        <v>13026</v>
+        <v>72007</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="I13" s="7">
-        <v>7613</v>
+        <v>64692</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>192</v>
+      </c>
+      <c r="N13" s="7">
+        <v>136699</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="M13" s="7">
-        <v>29</v>
-      </c>
-      <c r="N13" s="7">
-        <v>20639</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,148 +4791,148 @@
         <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>129556</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>113293</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>242848</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D15" s="7">
-        <v>9746</v>
+        <v>12495</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H15" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" s="7">
-        <v>10040</v>
+        <v>10803</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>49</v>
+        <v>292</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="M15" s="7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N15" s="7">
-        <v>19786</v>
+        <v>23298</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>115905</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>291</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>292</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H16" s="7">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>130695</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>294</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>295</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>246599</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>299</v>
@@ -4944,10 +4944,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>389</v>
+        <v>329</v>
       </c>
       <c r="D17" s="7">
-        <v>263508</v>
+        <v>237971</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>66</v>
@@ -4959,10 +4959,10 @@
         <v>66</v>
       </c>
       <c r="H17" s="7">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="I17" s="7">
-        <v>255084</v>
+        <v>224616</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>66</v>
@@ -4974,10 +4974,10 @@
         <v>66</v>
       </c>
       <c r="M17" s="7">
-        <v>752</v>
+        <v>643</v>
       </c>
       <c r="N17" s="7">
-        <v>518592</v>
+        <v>462586</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>66</v>
@@ -4991,16 +4991,16 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>72007</v>
+        <v>9746</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>300</v>
@@ -5012,34 +5012,34 @@
         <v>302</v>
       </c>
       <c r="H18" s="7">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>64692</v>
+        <v>10040</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>28</v>
+      </c>
+      <c r="N18" s="7">
+        <v>19786</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="M18" s="7">
-        <v>192</v>
-      </c>
-      <c r="N18" s="7">
-        <v>136699</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,49 +5048,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7">
-        <v>17830</v>
+        <v>29630</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>36</v>
+      </c>
+      <c r="I19" s="7">
+        <v>24397</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="H19" s="7">
-        <v>33</v>
-      </c>
-      <c r="I19" s="7">
-        <v>22850</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>80</v>
+      </c>
+      <c r="N19" s="7">
+        <v>54027</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="M19" s="7">
-        <v>58</v>
-      </c>
-      <c r="N19" s="7">
-        <v>40679</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,25 +5099,25 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="D20" s="7">
-        <v>12495</v>
+        <v>95200</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>319</v>
       </c>
       <c r="H20" s="7">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="I20" s="7">
-        <v>10803</v>
+        <v>82341</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>320</v>
@@ -5129,10 +5129,10 @@
         <v>322</v>
       </c>
       <c r="M20" s="7">
-        <v>32</v>
+        <v>258</v>
       </c>
       <c r="N20" s="7">
-        <v>23298</v>
+        <v>177541</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>323</v>
@@ -5150,151 +5150,151 @@
         <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>115905</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
+        <v>326</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>130695</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>41</v>
+        <v>329</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>42</v>
+        <v>330</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>246599</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>41</v>
+        <v>332</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>42</v>
+        <v>333</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>6083</v>
+        <v>13026</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>85</v>
+        <v>337</v>
       </c>
       <c r="H22" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>12978</v>
+        <v>7613</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="M22" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N22" s="7">
-        <v>19061</v>
+        <v>20639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>129556</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>335</v>
+        <v>61</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>336</v>
+        <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>337</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>113293</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>338</v>
+        <v>61</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>339</v>
+        <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M23" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>242848</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>341</v>
+        <v>61</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>342</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>343</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>329</v>
+        <v>389</v>
       </c>
       <c r="D24" s="7">
-        <v>237971</v>
+        <v>263508</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>66</v>
@@ -5318,10 +5318,10 @@
         <v>66</v>
       </c>
       <c r="H24" s="7">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="I24" s="7">
-        <v>224616</v>
+        <v>255084</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>66</v>
@@ -5333,10 +5333,10 @@
         <v>66</v>
       </c>
       <c r="M24" s="7">
-        <v>643</v>
+        <v>752</v>
       </c>
       <c r="N24" s="7">
-        <v>462586</v>
+        <v>518592</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>66</v>
@@ -5356,49 +5356,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>299</v>
+        <v>27</v>
       </c>
       <c r="D25" s="7">
-        <v>208283</v>
+        <v>18715</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="7">
+        <v>36</v>
+      </c>
+      <c r="I25" s="7">
+        <v>25652</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H25" s="7">
-        <v>284</v>
-      </c>
-      <c r="I25" s="7">
-        <v>195485</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>63</v>
+      </c>
+      <c r="N25" s="7">
+        <v>44368</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="M25" s="7">
-        <v>583</v>
-      </c>
-      <c r="N25" s="7">
-        <v>403768</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>351</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>352</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,10 +5416,10 @@
         <v>226</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
         <v>85</v>
@@ -5428,13 +5428,13 @@
         <v>57893</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M26" s="7">
         <v>169</v>
@@ -5443,13 +5443,13 @@
         <v>115617</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,49 +5458,49 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>66</v>
+        <v>299</v>
       </c>
       <c r="D27" s="7">
-        <v>47314</v>
+        <v>208283</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H27" s="7">
+        <v>284</v>
+      </c>
+      <c r="I27" s="7">
+        <v>195485</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="H27" s="7">
-        <v>49</v>
-      </c>
-      <c r="I27" s="7">
-        <v>33029</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>583</v>
+      </c>
+      <c r="N27" s="7">
+        <v>403768</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="M27" s="7">
-        <v>115</v>
-      </c>
-      <c r="N27" s="7">
-        <v>80343</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,151 +5509,151 @@
         <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>344811</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>41</v>
+        <v>367</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>42</v>
+        <v>368</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>191</v>
+        <v>369</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>329279</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>42</v>
+        <v>371</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>674090</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>42</v>
+        <v>374</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>192</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D29" s="7">
-        <v>18715</v>
+        <v>47314</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>55</v>
+        <v>378</v>
       </c>
       <c r="H29" s="7">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="I29" s="7">
-        <v>25652</v>
+        <v>33029</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M29" s="7">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="N29" s="7">
-        <v>44368</v>
+        <v>80343</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>140</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>344811</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>377</v>
+        <v>61</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>378</v>
+        <v>62</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>379</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>329279</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>380</v>
+        <v>61</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>381</v>
+        <v>62</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M30" s="7">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>674090</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>383</v>
+        <v>61</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>384</v>
+        <v>62</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>385</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,7 +5723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911E6630-19CB-4AEA-A853-26FF387FEB4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D468ECE-EB83-4AB8-83F9-3908226C2EC6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5841,10 +5841,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>47607</v>
+        <v>12664</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>387</v>
@@ -5856,28 +5856,28 @@
         <v>389</v>
       </c>
       <c r="H4" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>41337</v>
+        <v>11782</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>390</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M4" s="7">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="N4" s="7">
-        <v>88945</v>
+        <v>24447</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>392</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>393</v>
@@ -5943,10 +5943,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D6" s="7">
-        <v>8597</v>
+        <v>47607</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>404</v>
@@ -5958,34 +5958,34 @@
         <v>406</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="I6" s="7">
-        <v>11497</v>
+        <v>41337</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>139</v>
+      </c>
+      <c r="N6" s="7">
+        <v>88945</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="M6" s="7">
-        <v>30</v>
-      </c>
-      <c r="N6" s="7">
-        <v>20094</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,151 +5994,151 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>73185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>412</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>413</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>414</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>66941</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>415</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>416</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>140126</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>417</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>418</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7">
-        <v>12664</v>
+        <v>8597</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="H8" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7">
-        <v>11782</v>
+        <v>11497</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="M8" s="7">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N8" s="7">
-        <v>24447</v>
+        <v>20094</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>426</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>73185</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>421</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>422</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>423</v>
+        <v>253</v>
       </c>
       <c r="H9" s="7">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>66941</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>298</v>
+        <v>61</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>424</v>
+        <v>62</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="M9" s="7">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>140126</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>426</v>
+        <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>427</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>428</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,49 +6200,49 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>110421</v>
+        <v>22591</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>28</v>
+      </c>
+      <c r="I11" s="7">
+        <v>17895</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="H11" s="7">
-        <v>136</v>
-      </c>
-      <c r="I11" s="7">
-        <v>95008</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>62</v>
+      </c>
+      <c r="N11" s="7">
+        <v>40486</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M11" s="7">
-        <v>282</v>
-      </c>
-      <c r="N11" s="7">
-        <v>205429</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>436</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>437</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,49 +6251,49 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>49557</v>
+        <v>37895</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>65</v>
+      </c>
+      <c r="I12" s="7">
+        <v>40619</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="H12" s="7">
-        <v>74</v>
-      </c>
-      <c r="I12" s="7">
-        <v>52478</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>121</v>
+      </c>
+      <c r="N12" s="7">
+        <v>78515</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="M12" s="7">
-        <v>142</v>
-      </c>
-      <c r="N12" s="7">
-        <v>102034</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,49 +6302,49 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="D13" s="7">
-        <v>5874</v>
+        <v>89324</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>372</v>
-      </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="I13" s="7">
-        <v>6585</v>
+        <v>86271</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>448</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>104</v>
+        <v>449</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M13" s="7">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="N13" s="7">
-        <v>12458</v>
+        <v>175595</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,151 +6353,151 @@
         <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>94415</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>454</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>455</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>82386</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>457</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>458</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>176801</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>460</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>461</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D15" s="7">
-        <v>29954</v>
+        <v>5826</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="H15" s="7">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I15" s="7">
-        <v>18789</v>
+        <v>6046</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>269</v>
+        <v>466</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="M15" s="7">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="N15" s="7">
-        <v>48743</v>
+        <v>11873</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>125</v>
+        <v>469</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>459</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>82934</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>460</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>92791</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>463</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>464</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="M16" s="7">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>175725</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>466</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,10 +6506,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D17" s="7">
-        <v>278739</v>
+        <v>250052</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>66</v>
@@ -6521,10 +6521,10 @@
         <v>66</v>
       </c>
       <c r="H17" s="7">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="I17" s="7">
-        <v>265651</v>
+        <v>233217</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>66</v>
@@ -6536,10 +6536,10 @@
         <v>66</v>
       </c>
       <c r="M17" s="7">
-        <v>749</v>
+        <v>720</v>
       </c>
       <c r="N17" s="7">
-        <v>544389</v>
+        <v>483269</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>66</v>
@@ -6553,55 +6553,55 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="D18" s="7">
-        <v>89324</v>
+        <v>29954</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="H18" s="7">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="I18" s="7">
-        <v>86271</v>
+        <v>18789</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>471</v>
+        <v>312</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="M18" s="7">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="N18" s="7">
-        <v>175595</v>
+        <v>48743</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>474</v>
+        <v>77</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,49 +6610,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D19" s="7">
-        <v>37895</v>
+        <v>49557</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H19" s="7">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I19" s="7">
-        <v>40619</v>
+        <v>52478</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M19" s="7">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="N19" s="7">
-        <v>78515</v>
+        <v>102034</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,49 +6661,49 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="D20" s="7">
-        <v>5826</v>
+        <v>110421</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H20" s="7">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="I20" s="7">
-        <v>6046</v>
+        <v>95008</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M20" s="7">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="N20" s="7">
-        <v>11873</v>
+        <v>205429</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>288</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,151 +6712,151 @@
         <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>82934</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
+        <v>498</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>42</v>
+        <v>499</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>282</v>
+        <v>500</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>92791</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>41</v>
+        <v>501</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>42</v>
+        <v>502</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>175725</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>41</v>
+        <v>320</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>42</v>
+        <v>504</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>22591</v>
+        <v>5874</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>355</v>
+        <v>506</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>496</v>
+        <v>71</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>497</v>
+        <v>345</v>
       </c>
       <c r="H22" s="7">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>17895</v>
+        <v>6585</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>498</v>
+        <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>499</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="M22" s="7">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="N22" s="7">
-        <v>40486</v>
+        <v>12458</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>357</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>94415</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>503</v>
+        <v>61</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>504</v>
+        <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="H23" s="7">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>82386</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>506</v>
+        <v>61</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>507</v>
+        <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="M23" s="7">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>176801</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>509</v>
+        <v>61</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>510</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>511</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,10 +6865,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="D24" s="7">
-        <v>250052</v>
+        <v>278739</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>66</v>
@@ -6880,10 +6880,10 @@
         <v>66</v>
       </c>
       <c r="H24" s="7">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="I24" s="7">
-        <v>233217</v>
+        <v>265651</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>66</v>
@@ -6895,10 +6895,10 @@
         <v>66</v>
       </c>
       <c r="M24" s="7">
-        <v>720</v>
+        <v>749</v>
       </c>
       <c r="N24" s="7">
-        <v>483269</v>
+        <v>544389</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>66</v>
@@ -6918,49 +6918,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="D25" s="7">
-        <v>247352</v>
+        <v>65210</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>75</v>
+      </c>
+      <c r="I25" s="7">
+        <v>48466</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="H25" s="7">
-        <v>336</v>
-      </c>
-      <c r="I25" s="7">
-        <v>222616</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="L25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M25" s="7">
+        <v>170</v>
+      </c>
+      <c r="N25" s="7">
+        <v>113676</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="M25" s="7">
-        <v>681</v>
-      </c>
-      <c r="N25" s="7">
-        <v>469969</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6975,13 +6975,13 @@
         <v>109323</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="H26" s="7">
         <v>172</v>
@@ -6990,13 +6990,13 @@
         <v>112976</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="M26" s="7">
         <v>330</v>
@@ -7005,13 +7005,13 @@
         <v>222298</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,49 +7020,49 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>29</v>
+        <v>345</v>
       </c>
       <c r="D27" s="7">
-        <v>20297</v>
+        <v>247352</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>530</v>
       </c>
       <c r="H27" s="7">
-        <v>38</v>
+        <v>336</v>
       </c>
       <c r="I27" s="7">
-        <v>24128</v>
+        <v>222616</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>531</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>323</v>
-      </c>
       <c r="M27" s="7">
-        <v>67</v>
+        <v>681</v>
       </c>
       <c r="N27" s="7">
-        <v>44425</v>
+        <v>469969</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>533</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>280</v>
+        <v>534</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,151 +7071,151 @@
         <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>250535</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>41</v>
+        <v>536</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>42</v>
+        <v>537</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>190</v>
+        <v>538</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>242117</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>41</v>
+        <v>539</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>42</v>
+        <v>540</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>191</v>
+        <v>541</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>492651</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>41</v>
+        <v>542</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>42</v>
+        <v>543</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>192</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="D29" s="7">
-        <v>65210</v>
+        <v>20297</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>545</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>535</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="H29" s="7">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I29" s="7">
-        <v>48466</v>
+        <v>24128</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>295</v>
       </c>
       <c r="M29" s="7">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="N29" s="7">
-        <v>113676</v>
+        <v>44425</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>540</v>
+        <v>341</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>250535</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>542</v>
+        <v>61</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>543</v>
+        <v>62</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>544</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>242117</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>545</v>
+        <v>61</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>546</v>
+        <v>62</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>547</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>492651</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>548</v>
+        <v>61</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>549</v>
+        <v>62</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>550</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7285,7 +7285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F611CB71-1F58-42BE-A380-FF494176FA62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AA1E5B-AAD7-4324-8C8A-92C0E4BA398C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7403,49 +7403,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>33112</v>
+        <v>523</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>259</v>
+        <v>511</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4085</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="H4" s="7">
-        <v>53</v>
-      </c>
-      <c r="I4" s="7">
-        <v>28342</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>9</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4609</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="M4" s="7">
-        <v>117</v>
-      </c>
-      <c r="N4" s="7">
-        <v>61454</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7460,13 @@
         <v>23629</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -7475,13 +7475,13 @@
         <v>13133</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -7490,13 +7490,13 @@
         <v>36761</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7505,40 +7505,40 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D6" s="7">
-        <v>5320</v>
+        <v>33112</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>52</v>
+        <v>320</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="H6" s="7">
+        <v>53</v>
+      </c>
+      <c r="I6" s="7">
+        <v>28342</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="H6" s="7">
-        <v>9</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4875</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="M6" s="7">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="N6" s="7">
-        <v>10195</v>
+        <v>61454</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>571</v>
@@ -7556,151 +7556,151 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D7" s="7">
-        <v>2926</v>
+        <v>37070</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>574</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>54</v>
+        <v>575</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="I7" s="7">
-        <v>4007</v>
+        <v>38285</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>448</v>
+        <v>577</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>578</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>579</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="N7" s="7">
-        <v>6932</v>
+        <v>75355</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>371</v>
+        <v>581</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>219</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>523</v>
+        <v>5320</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>452</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>583</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>4085</v>
+        <v>4875</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>579</v>
+        <v>508</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>580</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N8" s="7">
-        <v>4609</v>
+        <v>10195</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>587</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>37070</v>
+        <v>2926</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>584</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="H9" s="7">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>38285</v>
+        <v>4007</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>586</v>
+        <v>507</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>587</v>
+        <v>74</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>588</v>
+        <v>226</v>
       </c>
       <c r="M9" s="7">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="N9" s="7">
-        <v>75355</v>
+        <v>6932</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>590</v>
+        <v>344</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>591</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,49 +7762,49 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>146967</v>
+        <v>10328</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>592</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>18</v>
+      </c>
+      <c r="I11" s="7">
+        <v>12227</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="H11" s="7">
-        <v>152</v>
-      </c>
-      <c r="I11" s="7">
-        <v>106145</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>31</v>
+      </c>
+      <c r="N11" s="7">
+        <v>22555</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="M11" s="7">
-        <v>339</v>
-      </c>
-      <c r="N11" s="7">
-        <v>253111</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7813,49 +7813,49 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="D12" s="7">
-        <v>97898</v>
+        <v>38334</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>393</v>
+        <v>599</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>52</v>
+      </c>
+      <c r="I12" s="7">
+        <v>38584</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="H12" s="7">
-        <v>97</v>
-      </c>
-      <c r="I12" s="7">
-        <v>91129</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>101</v>
+      </c>
+      <c r="N12" s="7">
+        <v>76918</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="M12" s="7">
-        <v>211</v>
-      </c>
-      <c r="N12" s="7">
-        <v>189027</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,49 +7864,49 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D13" s="7">
-        <v>15163</v>
+        <v>81635</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>100</v>
+      </c>
+      <c r="I13" s="7">
+        <v>73106</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="H13" s="7">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7">
-        <v>11421</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>579</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>571</v>
+        <v>612</v>
       </c>
       <c r="M13" s="7">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="N13" s="7">
-        <v>26584</v>
+        <v>154741</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>486</v>
+        <v>614</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7915,148 +7915,148 @@
         <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D14" s="7">
-        <v>5106</v>
+        <v>64709</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="I14" s="7">
-        <v>4020</v>
+        <v>62211</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="M14" s="7">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="N14" s="7">
-        <v>9127</v>
+        <v>126920</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>622</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7">
-        <v>15476</v>
+        <v>8048</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>622</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I15" s="7">
-        <v>16185</v>
+        <v>10026</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>625</v>
+        <v>383</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>373</v>
+        <v>73</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M15" s="7">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N15" s="7">
-        <v>31661</v>
+        <v>18075</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>140</v>
+        <v>628</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>121672</v>
+        <v>1419</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>630</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H16" s="7">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>120713</v>
+        <v>2113</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M16" s="7">
-        <v>306</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>242385</v>
+        <v>3532</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>636</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>637</v>
@@ -8068,10 +8068,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>478</v>
+        <v>270</v>
       </c>
       <c r="D17" s="7">
-        <v>402281</v>
+        <v>204474</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>66</v>
@@ -8083,10 +8083,10 @@
         <v>66</v>
       </c>
       <c r="H17" s="7">
-        <v>461</v>
+        <v>281</v>
       </c>
       <c r="I17" s="7">
-        <v>349614</v>
+        <v>198267</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>66</v>
@@ -8098,10 +8098,10 @@
         <v>66</v>
       </c>
       <c r="M17" s="7">
-        <v>939</v>
+        <v>551</v>
       </c>
       <c r="N17" s="7">
-        <v>751894</v>
+        <v>402741</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>66</v>
@@ -8115,16 +8115,16 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7">
-        <v>81635</v>
+        <v>15476</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>638</v>
@@ -8136,34 +8136,34 @@
         <v>640</v>
       </c>
       <c r="H18" s="7">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I18" s="7">
-        <v>73106</v>
+        <v>16185</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>641</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>40</v>
+      </c>
+      <c r="N18" s="7">
+        <v>31661</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="M18" s="7">
-        <v>209</v>
-      </c>
-      <c r="N18" s="7">
-        <v>154741</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,49 +8172,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="D19" s="7">
-        <v>38334</v>
+        <v>97898</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="H19" s="7">
+        <v>97</v>
+      </c>
+      <c r="I19" s="7">
+        <v>91129</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="H19" s="7">
-        <v>52</v>
-      </c>
-      <c r="I19" s="7">
-        <v>38584</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>211</v>
+      </c>
+      <c r="N19" s="7">
+        <v>189027</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="M19" s="7">
-        <v>101</v>
-      </c>
-      <c r="N19" s="7">
-        <v>76918</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>653</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>654</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8223,40 +8223,40 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="D20" s="7">
-        <v>8048</v>
+        <v>146967</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>49</v>
+        <v>652</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="H20" s="7">
+        <v>152</v>
+      </c>
+      <c r="I20" s="7">
+        <v>106145</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="H20" s="7">
-        <v>14</v>
-      </c>
-      <c r="I20" s="7">
-        <v>10026</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>657</v>
       </c>
       <c r="M20" s="7">
-        <v>26</v>
+        <v>339</v>
       </c>
       <c r="N20" s="7">
-        <v>18075</v>
+        <v>253111</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>658</v>
@@ -8274,145 +8274,145 @@
         <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="D21" s="7">
-        <v>1419</v>
+        <v>121672</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>661</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>41</v>
+        <v>662</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H21" s="7">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="I21" s="7">
-        <v>2113</v>
+        <v>120713</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M21" s="7">
-        <v>4</v>
+        <v>306</v>
       </c>
       <c r="N21" s="7">
-        <v>3532</v>
+        <v>242385</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>370</v>
+        <v>668</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>10328</v>
+        <v>15163</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>321</v>
+        <v>671</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="H22" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I22" s="7">
-        <v>12227</v>
+        <v>11421</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>672</v>
+        <v>586</v>
       </c>
       <c r="M22" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N22" s="7">
-        <v>22555</v>
+        <v>26584</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>288</v>
+        <v>463</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>64709</v>
+        <v>5106</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H23" s="7">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="I23" s="7">
-        <v>62211</v>
+        <v>4020</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M23" s="7">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="N23" s="7">
-        <v>126920</v>
+        <v>9127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>681</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>682</v>
@@ -8427,10 +8427,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>270</v>
+        <v>478</v>
       </c>
       <c r="D24" s="7">
-        <v>204474</v>
+        <v>402281</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>66</v>
@@ -8442,10 +8442,10 @@
         <v>66</v>
       </c>
       <c r="H24" s="7">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="I24" s="7">
-        <v>198267</v>
+        <v>349614</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>66</v>
@@ -8457,10 +8457,10 @@
         <v>66</v>
       </c>
       <c r="M24" s="7">
-        <v>551</v>
+        <v>939</v>
       </c>
       <c r="N24" s="7">
-        <v>402741</v>
+        <v>751894</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>66</v>
@@ -8480,49 +8480,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>360</v>
+        <v>33</v>
       </c>
       <c r="D25" s="7">
-        <v>261713</v>
+        <v>26327</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="H25" s="7">
+        <v>47</v>
+      </c>
+      <c r="I25" s="7">
+        <v>32497</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>80</v>
+      </c>
+      <c r="N25" s="7">
+        <v>58824</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="H25" s="7">
-        <v>305</v>
-      </c>
-      <c r="I25" s="7">
-        <v>207594</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="P25" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>687</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="M25" s="7">
-        <v>665</v>
-      </c>
-      <c r="N25" s="7">
-        <v>469307</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8537,13 +8537,13 @@
         <v>159860</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H26" s="7">
         <v>173</v>
@@ -8552,13 +8552,13 @@
         <v>142846</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>650</v>
+        <v>602</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="M26" s="7">
         <v>377</v>
@@ -8567,13 +8567,13 @@
         <v>302706</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8582,49 +8582,49 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="D27" s="7">
-        <v>28531</v>
+        <v>261713</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="H27" s="7">
+        <v>305</v>
+      </c>
+      <c r="I27" s="7">
+        <v>207594</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="H27" s="7">
-        <v>38</v>
-      </c>
-      <c r="I27" s="7">
-        <v>26323</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>665</v>
+      </c>
+      <c r="N27" s="7">
+        <v>469307</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="M27" s="7">
-        <v>78</v>
-      </c>
-      <c r="N27" s="7">
-        <v>54854</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>530</v>
-      </c>
       <c r="P27" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>702</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8633,148 +8633,148 @@
         <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="D28" s="7">
-        <v>9451</v>
+        <v>223451</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>336</v>
+      </c>
+      <c r="I28" s="7">
+        <v>221209</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="H28" s="7">
-        <v>16</v>
-      </c>
-      <c r="I28" s="7">
-        <v>10140</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="L28" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="M28" s="7">
+        <v>627</v>
+      </c>
+      <c r="N28" s="7">
+        <v>444660</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>709</v>
-      </c>
-      <c r="M28" s="7">
-        <v>28</v>
-      </c>
-      <c r="N28" s="7">
-        <v>19591</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D29" s="7">
-        <v>26327</v>
+        <v>28531</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>531</v>
+        <v>710</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>50</v>
+        <v>629</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="H29" s="7">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I29" s="7">
-        <v>32497</v>
+        <v>26323</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>78</v>
+      </c>
+      <c r="N29" s="7">
+        <v>54854</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="M29" s="7">
-        <v>80</v>
-      </c>
-      <c r="N29" s="7">
-        <v>58824</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>714</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>223451</v>
+        <v>9451</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>16</v>
+      </c>
+      <c r="I30" s="7">
+        <v>10140</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>718</v>
-      </c>
-      <c r="H30" s="7">
-        <v>336</v>
-      </c>
-      <c r="I30" s="7">
-        <v>221209</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>632</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>719</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>435</v>
+        <v>720</v>
       </c>
       <c r="M30" s="7">
-        <v>627</v>
+        <v>28</v>
       </c>
       <c r="N30" s="7">
-        <v>444660</v>
+        <v>19591</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>721</v>
+        <v>75</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>722</v>
